--- a/TuVung/Lesson24/tuvung.xlsx
+++ b/TuVung/Lesson24/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4315B1-562C-4890-99D0-A5F430ED30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AEB244-4AA0-42EF-BCD6-BA7EEF0C4D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>第二十四課</t>
   </si>
   <si>
-    <t>さそう </t>
-  </si>
-  <si>
     <t>はく</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>バインミー</t>
   </si>
   <si>
-    <t xml:space="preserve"> をさそいます  </t>
-  </si>
-  <si>
     <t>にかちます </t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>をはきます </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> をさそいます</t>
+  </si>
+  <si>
+    <t>さそう</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,175 +600,175 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
